--- a/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
+++ b/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K443" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K444" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1674,11 +1674,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K443"/>
+  <dimension ref="A2:K444"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4170" topLeftCell="A371" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K376" sqref="K376"/>
+      <pane ySplit="4170" topLeftCell="A386" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I397" sqref="I397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1841,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>169.11099999999999</v>
+        <v>170.36099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1851,7 +1851,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>210.79200000000003</v>
+        <v>211.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10444,25 +10444,31 @@
       <c r="A396" s="40">
         <v>45138</v>
       </c>
-      <c r="B396" s="20"/>
-      <c r="C396" s="13"/>
+      <c r="B396" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C396" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D396" s="39"/>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G396" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H396" s="39"/>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
-      <c r="K396" s="20"/>
+      <c r="K396" s="48">
+        <v>45132</v>
+      </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B397" s="20"/>
+      <c r="A397" s="40"/>
+      <c r="B397" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
@@ -10471,14 +10477,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H397" s="39"/>
+      <c r="H397" s="39">
+        <v>1</v>
+      </c>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
+      <c r="K397" s="48">
+        <v>45133</v>
+      </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10496,7 +10506,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10514,7 +10524,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10532,7 +10542,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10550,7 +10560,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10568,7 +10578,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10586,7 +10596,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10604,7 +10614,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10622,7 +10632,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10640,7 +10650,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10658,7 +10668,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10676,7 +10686,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10694,7 +10704,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10712,7 +10722,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10730,7 +10740,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10748,7 +10758,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10766,7 +10776,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10784,7 +10794,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10802,7 +10812,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10820,7 +10830,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10838,7 +10848,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10856,7 +10866,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10874,7 +10884,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10892,7 +10902,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10910,7 +10920,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10928,7 +10938,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10946,7 +10956,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10964,7 +10974,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10982,7 +10992,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11000,7 +11010,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11018,7 +11028,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11036,7 +11046,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11054,7 +11064,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11072,7 +11082,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11090,7 +11100,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11108,7 +11118,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11126,7 +11136,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11144,7 +11154,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11162,7 +11172,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11180,7 +11190,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11198,7 +11208,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11216,7 +11226,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11234,7 +11244,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11252,7 +11262,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11270,7 +11280,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11288,21 +11298,39 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
+        <v>46538</v>
+      </c>
+      <c r="B443" s="20"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="39"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="39"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" s="40">
         <v>46568</v>
       </c>
-      <c r="B443" s="15"/>
-      <c r="C443" s="41"/>
-      <c r="D443" s="42"/>
-      <c r="E443" s="9"/>
-      <c r="F443" s="15"/>
-      <c r="G443" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H443" s="42"/>
-      <c r="I443" s="9"/>
-      <c r="J443" s="12"/>
-      <c r="K443" s="15"/>
+      <c r="B444" s="15"/>
+      <c r="C444" s="41"/>
+      <c r="D444" s="42"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="15"/>
+      <c r="G444" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="42"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="12"/>
+      <c r="K444" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11473,7 +11501,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>379.90300000000002</v>
+        <v>381.40300000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
+++ b/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="208">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K444" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K446" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1674,11 +1674,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K444"/>
+  <dimension ref="A2:K446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4170" topLeftCell="A386" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="I397" sqref="I397"/>
+      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1841,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>170.36099999999999</v>
+        <v>172.86099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1851,7 +1851,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>211.04200000000003</v>
+        <v>212.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10491,13 +10491,15 @@
         <v>45169</v>
       </c>
       <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
@@ -10508,25 +10510,31 @@
       <c r="A399" s="40">
         <v>45199</v>
       </c>
-      <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
+      <c r="B399" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C399" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="20"/>
+      <c r="K399" s="48">
+        <v>45173</v>
+      </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B400" s="20"/>
+      <c r="A400" s="40"/>
+      <c r="B400" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
@@ -10535,16 +10543,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H400" s="39"/>
+      <c r="H400" s="39">
+        <v>1</v>
+      </c>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
+      <c r="K400" s="48">
+        <v>45182</v>
+      </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B401" s="20"/>
+      <c r="A401" s="40"/>
+      <c r="B401" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
@@ -10556,11 +10568,13 @@
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
+      <c r="K401" s="48">
+        <v>45197</v>
+      </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45291</v>
+        <v>45230</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10578,7 +10592,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45322</v>
+        <v>45260</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10596,7 +10610,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10614,7 +10628,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10632,7 +10646,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10650,7 +10664,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10668,7 +10682,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10686,7 +10700,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10704,7 +10718,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10722,7 +10736,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10740,7 +10754,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10758,7 +10772,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10776,7 +10790,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10794,7 +10808,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10812,7 +10826,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10830,7 +10844,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10848,7 +10862,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10866,7 +10880,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10884,7 +10898,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10902,7 +10916,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10920,7 +10934,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10938,7 +10952,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10956,7 +10970,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10974,7 +10988,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10992,7 +11006,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11010,7 +11024,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11028,7 +11042,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11046,7 +11060,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11064,7 +11078,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11082,7 +11096,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11100,7 +11114,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11118,7 +11132,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11136,7 +11150,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11154,7 +11168,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46295</v>
+        <v>46234</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11172,7 +11186,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46326</v>
+        <v>46265</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11190,7 +11204,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46356</v>
+        <v>46295</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11208,7 +11222,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46387</v>
+        <v>46326</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11226,7 +11240,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46418</v>
+        <v>46356</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11244,7 +11258,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46446</v>
+        <v>46387</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11262,7 +11276,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46477</v>
+        <v>46418</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11280,7 +11294,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46507</v>
+        <v>46446</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11298,7 +11312,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11316,21 +11330,57 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
+        <v>46507</v>
+      </c>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="40">
+        <v>46538</v>
+      </c>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="39"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="39"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="40">
         <v>46568</v>
       </c>
-      <c r="B444" s="15"/>
-      <c r="C444" s="41"/>
-      <c r="D444" s="42"/>
-      <c r="E444" s="9"/>
-      <c r="F444" s="15"/>
-      <c r="G444" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H444" s="42"/>
-      <c r="I444" s="9"/>
-      <c r="J444" s="12"/>
-      <c r="K444" s="15"/>
+      <c r="B446" s="15"/>
+      <c r="C446" s="41"/>
+      <c r="D446" s="42"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="15"/>
+      <c r="G446" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="42"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="12"/>
+      <c r="K446" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11501,7 +11551,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>381.40300000000002</v>
+        <v>385.40300000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
+++ b/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="209">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1681,7 +1681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4170" topLeftCell="A389" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K404" sqref="K404"/>
+      <selection pane="bottomLeft" activeCell="H400" sqref="H400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1844,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>174.11099999999999</v>
+        <v>176.61099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1854,7 +1854,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>209.79200000000003</v>
+        <v>211.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10630,13 +10630,15 @@
       <c r="B404" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C404" s="13"/>
+      <c r="C404" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G404" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H404" s="39">
         <v>2</v>
@@ -10651,19 +10653,27 @@
       <c r="A405" s="40">
         <v>45291</v>
       </c>
-      <c r="B405" s="20"/>
-      <c r="C405" s="13"/>
+      <c r="B405" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H405" s="39"/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H405" s="39">
+        <v>1</v>
+      </c>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="48">
+        <v>45281</v>
+      </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
@@ -11590,7 +11600,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>383.90300000000002</v>
+        <v>387.90300000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
+++ b/REGULAR/MAHOGANY MARKET/ESTRANGCO, MERCY.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="210">
   <si>
     <t>PERIOD</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t>11/13,14/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1351,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K447" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K448" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1677,11 +1680,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K447"/>
+  <dimension ref="A2:K448"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4170" topLeftCell="A389" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="H400" sqref="H400"/>
+      <pane ySplit="4170" topLeftCell="A395" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G407" sqref="G407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1857,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>211.29200000000003</v>
+        <v>210.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10676,8 +10679,8 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40">
-        <v>45322</v>
+      <c r="A406" s="47" t="s">
+        <v>209</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10691,13 +10694,15 @@
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
+      <c r="K406" s="48"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B407" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B407" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39"/>
       <c r="E407" s="9"/>
@@ -10706,14 +10711,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H407" s="39"/>
+      <c r="H407" s="39">
+        <v>1</v>
+      </c>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
-      <c r="K407" s="20"/>
+      <c r="K407" s="48">
+        <v>45303</v>
+      </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10731,7 +10740,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10749,7 +10758,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10767,7 +10776,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10785,7 +10794,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10803,7 +10812,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10821,7 +10830,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10839,7 +10848,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10857,7 +10866,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10875,7 +10884,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10893,7 +10902,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10911,7 +10920,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10929,7 +10938,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10947,7 +10956,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10965,7 +10974,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10983,7 +10992,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11001,7 +11010,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11019,7 +11028,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11037,7 +11046,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11055,7 +11064,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11073,7 +11082,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11091,7 +11100,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11109,7 +11118,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11127,7 +11136,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11145,7 +11154,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11163,7 +11172,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11181,7 +11190,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11199,7 +11208,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11217,7 +11226,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11235,7 +11244,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11253,7 +11262,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11271,7 +11280,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11289,7 +11298,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11307,7 +11316,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11325,7 +11334,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11343,7 +11352,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11361,7 +11370,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11379,7 +11388,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11397,7 +11406,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11415,21 +11424,39 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
+        <v>46538</v>
+      </c>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="39"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="40">
         <v>46568</v>
       </c>
-      <c r="B447" s="15"/>
-      <c r="C447" s="41"/>
-      <c r="D447" s="42"/>
-      <c r="E447" s="9"/>
-      <c r="F447" s="15"/>
-      <c r="G447" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H447" s="42"/>
-      <c r="I447" s="9"/>
-      <c r="J447" s="12"/>
-      <c r="K447" s="15"/>
+      <c r="B448" s="15"/>
+      <c r="C448" s="41"/>
+      <c r="D448" s="42"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="15"/>
+      <c r="G448" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H448" s="42"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="12"/>
+      <c r="K448" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11600,7 +11627,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>387.90300000000002</v>
+        <v>386.90300000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
